--- a/InputData/cpi.xlsx
+++ b/InputData/cpi.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBE68E1-0A35-441E-9C13-8DD4B5F8F5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59485A2-ADF5-4469-ABB4-3A063C7F174B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1620" windowWidth="12720" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>CPI Consumer Price Index</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>2020............................................................................. .</t>
-  </si>
-  <si>
-    <t>2021............................................................................. .</t>
   </si>
 </sst>
 </file>
@@ -670,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -740,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1279,7 @@
         <v>4.2</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:G56" si="0">$D$50/D29</f>
+        <f t="shared" ref="G29:G57" si="0">$D$50/D29</f>
         <v>1.6857121879588841</v>
       </c>
       <c r="M29" s="1"/>
@@ -2064,30 +2061,6 @@
       <c r="G58" s="6">
         <f>$D$50/D58</f>
         <v>0.88711067149387013</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59">
-        <v>266.23599999999999</v>
-      </c>
-      <c r="C59">
-        <v>275.70299999999997</v>
-      </c>
-      <c r="D59">
-        <v>270.97000000000003</v>
-      </c>
-      <c r="E59">
-        <v>7</v>
-      </c>
-      <c r="F59">
-        <v>4.7</v>
-      </c>
-      <c r="G59" s="6">
-        <f>$D$50/D59</f>
-        <v>0.84730412960844359</v>
       </c>
     </row>
   </sheetData>
